--- a/docs/PT2ov/PT2ov_05.08.24_output.xlsx
+++ b/docs/PT2ov/PT2ov_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,434 +505,513 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730815361.6006002</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730815364.9362195</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730815361.6006002.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730815364.9362195.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.04</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.61</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.430000000000007</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730815364.9508584</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730815365.319603</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730815364.9508584.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730815365.319603.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.61</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.43</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730815372.5271726</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730815372.6649404</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730815372.5271726.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730815372.6649404.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>276.89</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>276.34</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730815375.2975245</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730815376.9870162</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815375.2975245.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815376.9870162.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>128.3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>128.09</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.210000000000008</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730815378.6767297</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730815378.7934847</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815378.6767297.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815378.7934847.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>127.28</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>127.94</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.6599999999999966</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730815380.6417692</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730815380.906264</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815380.6417692.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815380.906264.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>128.08</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.1</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730815381.255707</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730815381.9479227</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815381.255707.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815381.9479227.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>127.91</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>128.1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730815382.8717806</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730815382.976245</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815382.8717806.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815382.976245.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>128.16</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>128.16</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -925,783 +1019,927 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730815385.9048395</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730815386.4243538</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815385.9048395.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730815386.4243538.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>127.66</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>127.48</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730815386.511428</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730815387.234688</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730815386.511428.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730815387.234688.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6438.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6420.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>18</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730815392.812454</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730815392.9100962</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730815392.812454.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730815392.9100962.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6435.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6436</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730815397.6881466</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730815398.635986</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730815397.6881466.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730815398.635986.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6421.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6409</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>12.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730815399.6428554</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730815401.5609965</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730815399.6428554.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730815401.5609965.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>497.25</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>498.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.149999999999977</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730815410.3389502</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730815410.555588</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730815410.3389502.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730815410.555588.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>495.35</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>494.85</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730815412.58521</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730815413.2322817</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730815412.58521.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730815413.2322817.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>224.41</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>223.91</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730815415.6257944</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730815416.334408</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730815415.6257944.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730815416.334408.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>223.05</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>222.89</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730815418.3070445</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730815419.3481965</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730815418.3070445.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730815419.3481965.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>225.26</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>225.15</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.1099999999999852</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730815422.9592862</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730815423.0671127</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730815422.9592862.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730815423.0671127.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>224.08</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>224.05</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730815424.1099112</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730815426.2372553</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815424.1099112.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815426.2372553.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1008</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1006.2</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730815428.2095017</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730815428.610684</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815428.2095017.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815428.610684.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1002</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1002.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730815428.6721694</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730815430.4100397</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815428.6721694.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815430.4100397.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1002.6</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1008.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-6.199999999999932</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730815430.425628</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730815431.3256948</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815430.425628.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815431.3256948.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1008.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1009.4</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730815432.7007208</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730815434.6374452</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815432.7007208.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815434.6374452.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1009.6</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1005.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-3.800000000000068</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730815434.6530337</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730815434.7897353</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815434.6530337.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815434.7897353.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1005.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1005.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1709,873 +1947,1035 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730815434.925409</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730815435.4730194</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815434.925409.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730815435.4730194.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1006</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1005.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730815447.173898</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730815448.7551036</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730815447.173898.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730815448.7551036.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>124.02</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>124.24</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730815448.7707198</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730815449.0352557</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730815448.7707198.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730815449.0352557.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>124.24</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>124.42</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730815450.1696055</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1730815450.1696055.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1730815450.1696055.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>124.54</v>
       </c>
-      <c r="J30" t="n">
-        <v>124.54</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>124.14</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730815461.934841</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730815462.9051194</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730815461.934841.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730815462.9051194.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>160.7</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>161.06</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730815463.6781483</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730815465.788924</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730815463.6781483.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730815465.788924.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>161.14</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>160.6</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.539999999999992</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730815471.392235</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730815471.487883</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815471.392235.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815471.487883.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>48.75</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>48.715</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.03499999999999659</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730815471.6254992</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730815471.7222703</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815471.6254992.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815471.7222703.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>48.715</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>48.665</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730815472.065855</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730815474.9007702</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815472.065855.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815474.9007702.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>48.73</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>49.17</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.4400000000000048</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730815477.492582</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730815477.8253965</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815477.492582.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730815477.8253965.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>49.065</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>48.915</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730815479.3047872</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730815479.9683516</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815479.3047872.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815479.9683516.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1385</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1382.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730815483.6569128</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730815483.7564657</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815483.6569128.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815483.7564657.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1375.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1374.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>1.399999999999864</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730815484.3235207</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730815484.661268</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815484.3235207.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815484.661268.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1371.2</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1375</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-3.799999999999955</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730815488.0465372</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730815490.6518574</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815488.0465372.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730815490.6518574.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1380.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1378.8</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730815497.9902933</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730815498.2509217</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815497.9902933.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815498.2509217.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>59.5</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>59.55</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730815498.306548</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730815498.5232203</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815498.306548.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815498.5232203.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>59.56</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>59.67</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730815498.7818646</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730815499.645664</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815498.7818646.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815499.645664.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>59.61</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>59.62</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730815500.0887506</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730815500.6023035</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815500.0887506.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730815500.6023035.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>59.66</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>59.66</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2583,1355 +2983,1607 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730815501.3655365</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730815501.3655365.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730815501.3655365.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>59.61</v>
       </c>
-      <c r="J45" t="n">
-        <v>59.61</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>59.38</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.2299999999999969</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730815505.5822132</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730815505.6378164</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815505.5822132.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815505.6378164.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>95.97</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>95.93000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730815505.9405327</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730815506.0888572</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815505.9405327.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815506.0888572.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>96.02</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>96.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730815506.3533812</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730815506.409013</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815506.3533812.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815506.409013.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>96.3</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730815508.035694</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730815509.2254899</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815508.035694.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815509.2254899.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>96</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>96.18000000000001</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730815510.485606</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730815510.5851295</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815510.485606.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815510.5851295.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>95.75</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>95.63</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730815511.0244584</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730815511.373973</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815511.0244584.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730815511.373973.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>95.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>95.62</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730815512.9096427</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730815513.8243427</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815512.9096427.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815513.8243427.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>55.81</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>55.7</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730815514.723341</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730815516.077509</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815514.723341.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815516.077509.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>56.16</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>55.69</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.4699999999999989</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730815516.1331403</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730815516.3088202</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815516.1331403.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815516.3088202.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>55.7</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>55.64</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730815516.5226038</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730815519.641238</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815516.5226038.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/SELG1730815519.641238.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>55.71</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>56.15</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730815527.274983</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730815529.417893</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730815527.274983.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730815529.417893.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>139.16</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>142.2</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-3.039999999999992</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-2.18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730815529.4354608</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730815531.6956024</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730815529.4354608.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730815531.6956024.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>142.2</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>142.44</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730815537.256388</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730815537.9828248</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815537.256388.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815537.9828248.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>19.949</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>19.875</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.07400000000000162</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730815539.1034374</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730815541.0816157</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815539.1034374.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815541.0816157.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>19.832</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>19.919</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.08699999999999974</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730815541.0981808</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730815542.5904038</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815541.0981808.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815542.5904038.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>19.919</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>19.936</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.01699999999999946</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730815543.5059881</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730815545.8008764</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815543.5059881.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815545.8008764.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>19.944</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>19.814</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.129999999999999</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730815545.8164947</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730815546.0111604</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815545.8164947.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815546.0111604.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>19.814</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>19.855</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.04100000000000037</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730815546.0678365</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730815546.124444</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815546.0678365.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815546.124444.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>19.846</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>19.817</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.02899999999999991</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730815546.181061</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730815546.4550428</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815546.181061.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730815546.4550428.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>19.8</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>19.78</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.01999999999999957</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730815548.045461</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730815548.5766978</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815548.045461.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815548.5766978.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>650.7</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>650.9</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1999999999999318</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730815549.5971162</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730815550.0003042</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815549.5971162.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815550.0003042.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>660</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>660.8</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730815550.30872</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730815552.140917</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815550.30872.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815552.140917.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>659.05</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>657.45</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-1.599999999999909</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730815553.6588213</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730815555.0171504</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815553.6588213.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815555.0171504.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>661.6</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>660.45</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-1.149999999999977</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730815558.3535783</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730815558.6454024</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815558.3535783.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730815558.6454024.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>658</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>657</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730815571.5498245</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730815571.7118137</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815571.5498245.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815571.7118137.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>0.09508000000000001</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.0001199999999999951</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730815573.1427217</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730815576.7720573</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815573.1427217.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/FEES1730815576.7720573.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>0.09504000000000001</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.0004799999999999943</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730815576.787701</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1730815576.787701.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/FEES1730815576.787701.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>0.09504000000000001</v>
       </c>
-      <c r="J72" t="n">
-        <v>0.09504000000000001</v>
-      </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
+        <v>0.09504</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.387778780781446e-17</v>
+      </c>
+      <c r="N72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3939,392 +4591,464 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730815581.4176939</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730815581.8102365</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730815581.4176939.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730815581.8102365.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>94.83</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>94.73</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730815588.4707866</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730815588.7353516</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815588.4707866.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815588.7353516.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>2902.55</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>2903.65</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>1.099999999999909</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730815588.846919</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730815589.3573399</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815588.846919.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815589.3573399.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2902.5</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>2904.9</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>2.400000000000091</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730815590.224682</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730815593.5957239</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815590.224682.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815593.5957239.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2906.75</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>2895.45</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-11.30000000000018</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730815593.6132634</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730815593.729432</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815593.6132634.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815593.729432.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2895.45</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>2895.4</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.04999999999972715</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730815593.7870185</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730815593.8435986</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815593.7870185.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1730815593.8435986.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>2895.25</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>2894</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730815594.4214113</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730815597.6794047</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730815594.4214113.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730815597.6794047.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>11.893</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>11.905</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.01199999999999868</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730815597.6959972</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730815598.0395496</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730815597.6959972.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730815598.0395496.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>11.905</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>11.909</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.004000000000001336</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -4338,7 +5062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4362,6 +5086,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4375,6 +5114,15 @@
       <c r="C2" t="n">
         <v>7</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.01685714285714265</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4388,6 +5136,15 @@
       <c r="C3" t="n">
         <v>7</v>
       </c>
+      <c r="D3" t="n">
+        <v>-1.514285714285718</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4401,6 +5158,15 @@
       <c r="C4" t="n">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.1366666666666703</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4414,6 +5180,15 @@
       <c r="C5" t="n">
         <v>6</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.0800000000000054</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.3700000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4422,11 +5197,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1699999999999946</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.01200000000000045</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1099999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4440,6 +5224,15 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4453,6 +5246,15 @@
       <c r="C8" t="n">
         <v>5</v>
       </c>
+      <c r="D8" t="n">
+        <v>-1.300000000000091</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4466,6 +5268,15 @@
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.05125000000000135</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4479,6 +5290,15 @@
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.1450000000000102</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4492,6 +5312,15 @@
       <c r="C11" t="n">
         <v>4</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.05000000000000071</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3599999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4505,6 +5334,15 @@
       <c r="C12" t="n">
         <v>4</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4518,6 +5356,15 @@
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>10.33333333333333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4526,11 +5373,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.03999999999999204</v>
+        <v>-0.4399999999999977</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.1466666666666659</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4544,6 +5400,15 @@
       <c r="C15" t="n">
         <v>3</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.2333333333333295</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4552,11 +5417,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0003599999999999992</v>
+        <v>-0.0003599999999999853</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.0001199999999999951</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4570,6 +5444,15 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>-0.0899999999999892</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4583,6 +5466,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.8249999999999886</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4596,6 +5488,15 @@
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.003999999999998671</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4609,6 +5510,15 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>-1.399999999999991</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.01</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4622,6 +5532,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4635,6 +5554,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
